--- a/2023/(A) 1.xlsx
+++ b/2023/(A) 1.xlsx
@@ -568,10 +568,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="6">
-        <v>621000.0</v>
+        <v>-621000.0</v>
       </c>
       <c r="D10" s="6">
-        <v>492367.1</v>
+        <v>-492367.1</v>
       </c>
       <c r="E10" s="7">
         <v>79.3</v>
@@ -585,10 +585,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="6">
-        <v>4400000.0</v>
+        <v>-4400000.0</v>
       </c>
       <c r="D11" s="6">
-        <v>3417503.6</v>
+        <v>-3417503.6</v>
       </c>
       <c r="E11" s="7">
         <v>77.7</v>
